--- a/en/downloads/data-excel/15.5.1.1.xlsx
+++ b/en/downloads/data-excel/15.5.1.1.xlsx
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -215,6 +215,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,9 +526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -531,7 +539,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -542,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -553,7 +561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -564,8 +572,9 @@
       <c r="H3" s="4"/>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -596,8 +605,11 @@
       <c r="J4" s="6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -610,8 +622,11 @@
       <c r="J5" s="1">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -642,8 +657,11 @@
       <c r="J6" s="7">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="10">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -674,8 +692,11 @@
       <c r="J7" s="7">
         <v>25.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="10">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -706,8 +727,11 @@
       <c r="J8" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -738,8 +762,11 @@
       <c r="J9" s="7">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -770,8 +797,11 @@
       <c r="J10" s="7">
         <v>21.74</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="10">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -800,6 +830,9 @@
         <v>9.5</v>
       </c>
       <c r="J11" s="8">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="K11" s="11">
         <v>9.4600000000000009</v>
       </c>
     </row>

--- a/en/downloads/data-excel/15.5.1.1.xlsx
+++ b/en/downloads/data-excel/15.5.1.1.xlsx
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -561,7 +561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -573,8 +573,9 @@
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -608,8 +609,11 @@
       <c r="K4" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -625,8 +629,11 @@
       <c r="K5" s="10">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -660,8 +667,11 @@
       <c r="K6" s="10">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="10">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -695,8 +705,11 @@
       <c r="K7" s="10">
         <v>25.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="10">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -730,8 +743,11 @@
       <c r="K8" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -765,8 +781,11 @@
       <c r="K9" s="10">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -800,8 +819,11 @@
       <c r="K10" s="10">
         <v>21.74</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="10">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -833,6 +855,9 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="K11" s="11">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="L11" s="11">
         <v>9.4600000000000009</v>
       </c>
     </row>

--- a/en/downloads/data-excel/15.5.1.1.xlsx
+++ b/en/downloads/data-excel/15.5.1.1.xlsx
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -561,7 +561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -574,8 +574,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -612,8 +613,11 @@
       <c r="L4" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -632,8 +636,11 @@
       <c r="L5" s="10">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -670,8 +677,11 @@
       <c r="L6" s="10">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="10">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -708,8 +718,11 @@
       <c r="L7" s="10">
         <v>25.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="10">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -746,8 +759,11 @@
       <c r="L8" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -784,8 +800,11 @@
       <c r="L9" s="10">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -822,8 +841,11 @@
       <c r="L10" s="10">
         <v>21.74</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="10">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -858,6 +880,9 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="L11" s="11">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="M11" s="11">
         <v>9.4600000000000009</v>
       </c>
     </row>

--- a/en/downloads/data-excel/15.5.1.1.xlsx
+++ b/en/downloads/data-excel/15.5.1.1.xlsx
@@ -526,20 +526,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="33.140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="34.28515625" style="1" customWidth="1"/>
     <col min="4" max="10" width="9.42578125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -561,7 +559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -575,8 +573,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -616,8 +615,11 @@
       <c r="M4" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -639,8 +641,11 @@
       <c r="M5" s="10">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -680,8 +685,11 @@
       <c r="M6" s="10">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="10">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -721,8 +729,11 @@
       <c r="M7" s="10">
         <v>25.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="10">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -762,8 +773,11 @@
       <c r="M8" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -803,8 +817,11 @@
       <c r="M9" s="10">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -844,8 +861,11 @@
       <c r="M10" s="10">
         <v>21.74</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="10">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -883,6 +903,9 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="M11" s="11">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="N11" s="11">
         <v>9.4600000000000009</v>
       </c>
     </row>
